--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A8C09A-A8C1-4C84-9FE7-8A059D88894D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B606B1F2-8363-4665-8EDB-B5E7FAC6F5C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>№</t>
   </si>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B606B1F2-8363-4665-8EDB-B5E7FAC6F5C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FC964-461A-4D1D-8721-14F244148C37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -593,16 +593,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +939,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1076,7 +1073,7 @@
       <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="10">
@@ -1109,26 +1106,28 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="35">
         <v>35</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="35">
         <v>50</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
@@ -1149,19 +1148,19 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="35">
         <v>30</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="35">
         <v>50</v>
       </c>
       <c r="G14" s="11">
@@ -1291,7 +1290,7 @@
   <dimension ref="B1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B19" sqref="B19:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,73 +1629,73 @@
       <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="31">
         <v>1</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31">
         <v>2</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31">
         <v>3</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="31">
         <v>4</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="31">
         <v>5</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FC964-461A-4D1D-8721-14F244148C37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D6A75C-2234-4B84-A2A0-F9FB39F4D5A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,22 +1130,24 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="35">
         <v>20</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="35">
         <v>35</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D6A75C-2234-4B84-A2A0-F9FB39F4D5A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F746C9-CCF2-4216-A411-3A8B289DF334}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Версия 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Версия 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Заметки" sheetId="3" r:id="rId2"/>
+    <sheet name="Версия 1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -111,9 +112,6 @@
   </si>
   <si>
     <t>Генерация истории</t>
-  </si>
-  <si>
-    <t>Окно с настройкой дальности генерации и кнопкой старта. В отдельном потоке происходит переход вселенной к следующему шагу и запись положения и скорости всех тел, а также изменение файла сводки истории. Параллельно изменяется отображение текущей даты. Если уже есть сгенерированная история, то генерация продолжается с последнего дня.</t>
   </si>
   <si>
     <t>Окно рендера</t>
@@ -275,9 +273,6 @@
     <t>Класс, позволяющий сохранять и загружать созданные вселенные</t>
   </si>
   <si>
-    <t>Заметка</t>
-  </si>
-  <si>
     <t>Если я собираюсь писать документацию после решения каждой задачи, необходимо закладывать по полторы минуты на каждую документируемую штуку.</t>
   </si>
   <si>
@@ -294,6 +289,78 @@
   </si>
   <si>
     <t>При создании вселенной должно появляться окно, позволяющие задать параметры генерации вселенной. Должен быть чекбокс, указывающий, создаётся ли пустая вселенная. В противном случае пользователю необходимо заполнить следующие поля: минимальное и максимальное расстояние от центра координат, минимальный и максимальный диаметр, минимальная масса, зависимость массы от диаметра (и чекбокс, если они не должны зависеть), минимальная и максимальная скорость по координате, минимальная и максимальная яркость тел, гравитационная постоянная и чекбокс для её рандомизации.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Окно с настройкой дальности генерации и кнопкой старта. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В отдельном потоке </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>происходит переход вселенной к следующему шагу и запись положения и скорости всех тел, а также изменение файла сводки истории.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Параллельно изменяется отображение текущей даты. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если уже есть сгенерированная история, то генерация продолжается с последнего дня.</t>
+    </r>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Ошибки в планировании - не продумал необходимость моделей состояния тела и вселенной, которые можно было бы сохранять. Из-за этого пришлось потратить на задачу больше времени чем планировалось.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +481,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -476,17 +549,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -553,18 +654,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -574,19 +669,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -599,8 +685,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +1025,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +1079,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +1107,7 @@
     </row>
     <row r="5" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>10</v>
@@ -987,7 +1127,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -1030,7 +1170,7 @@
     </row>
     <row r="8" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
@@ -1048,7 +1188,7 @@
     </row>
     <row r="9" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
@@ -1068,12 +1208,12 @@
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="10">
@@ -1106,23 +1246,23 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="D12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="30">
         <v>35</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="30">
         <v>50</v>
       </c>
       <c r="G12" s="11">
@@ -1130,19 +1270,19 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="30">
         <v>20</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="30">
         <v>35</v>
       </c>
       <c r="G13" s="11">
@@ -1150,19 +1290,19 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="30">
         <v>30</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="30">
         <v>50</v>
       </c>
       <c r="G14" s="11">
@@ -1170,32 +1310,34 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="33">
         <v>30</v>
       </c>
-      <c r="E15" s="11">
-        <v>30</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="F15" s="33">
         <v>40</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="32">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="11">
         <v>20</v>
@@ -1210,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="E17" s="8">
         <f>SUM(E18:E19)</f>
@@ -1230,13 +1372,13 @@
     </row>
     <row r="18" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="11">
         <v>15</v>
@@ -1248,13 +1390,13 @@
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E19" s="11">
         <v>30</v>
@@ -1264,23 +1406,23 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="21" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-    </row>
-    <row r="23" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-    </row>
-    <row r="26" spans="2:7" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
+    <row r="21" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,27 +1430,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
-  <dimension ref="B1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFB2F0F-2939-40C5-96CD-99E71C785277}">
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="29"/>
-    <col min="3" max="3" width="28.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="3" width="9.140625" style="27"/>
+    <col min="4" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="127.7109375" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="38">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="38">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="38">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
+        <v>6</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="26"/>
+    <col min="3" max="3" width="28.140625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1328,13 +1739,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="19">
         <v>260</v>
@@ -1347,367 +1758,286 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="20">
+        <v>30</v>
+      </c>
+      <c r="F4" s="20">
+        <v>55</v>
+      </c>
+      <c r="G4" s="21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="21">
+      <c r="D5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <v>20</v>
+      </c>
+      <c r="G5" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="22">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22">
+        <v>35</v>
+      </c>
+      <c r="G6" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="25">
+        <v>95</v>
+      </c>
+      <c r="F7" s="25">
+        <v>190</v>
+      </c>
+      <c r="G7" s="25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="22">
         <v>30</v>
       </c>
-      <c r="F4" s="21">
-        <v>55</v>
-      </c>
-      <c r="G4" s="22">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23">
-        <v>44562</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="F8" s="22">
+        <v>60</v>
+      </c>
+      <c r="G8" s="23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="22">
+        <v>30</v>
+      </c>
+      <c r="F9" s="22">
+        <v>60</v>
+      </c>
+      <c r="G9" s="23">
         <v>10</v>
       </c>
-      <c r="F5" s="24">
+    </row>
+    <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="22">
+        <v>15</v>
+      </c>
+      <c r="F10" s="22">
+        <v>40</v>
+      </c>
+      <c r="G10" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="22">
         <v>20</v>
       </c>
-      <c r="G5" s="25">
+      <c r="F11" s="22">
+        <v>30</v>
+      </c>
+      <c r="G11" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43">
+        <v>3</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23">
-        <v>44593</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="E12" s="25">
+        <v>135</v>
+      </c>
+      <c r="F12" s="25">
+        <v>235</v>
+      </c>
+      <c r="G12" s="21">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="22">
         <v>20</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F13" s="22">
         <v>35</v>
       </c>
-      <c r="G6" s="25">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="28">
-        <v>95</v>
-      </c>
-      <c r="F7" s="28">
-        <v>190</v>
-      </c>
-      <c r="G7" s="28">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
-        <v>44563</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="G13" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="22">
+        <v>20</v>
+      </c>
+      <c r="F14" s="22">
+        <v>35</v>
+      </c>
+      <c r="G14" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="22">
+        <v>20</v>
+      </c>
+      <c r="F15" s="22">
+        <v>50</v>
+      </c>
+      <c r="G15" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22">
         <v>60</v>
       </c>
-      <c r="E8" s="24">
-        <v>30</v>
-      </c>
-      <c r="F8" s="24">
-        <v>60</v>
-      </c>
-      <c r="G8" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
-        <v>44594</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="24">
-        <v>30</v>
-      </c>
-      <c r="F9" s="24">
-        <v>60</v>
-      </c>
-      <c r="G9" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
-        <v>44622</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="F16" s="22">
+        <v>90</v>
+      </c>
+      <c r="G16" s="23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="22">
         <v>15</v>
       </c>
-      <c r="F10" s="24">
-        <v>40</v>
-      </c>
-      <c r="G10" s="25">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
-        <v>44653</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="24">
-        <v>20</v>
-      </c>
-      <c r="F11" s="24">
-        <v>30</v>
-      </c>
-      <c r="G11" s="25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27">
-        <v>3</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="28">
-        <v>135</v>
-      </c>
-      <c r="F12" s="28">
-        <v>235</v>
-      </c>
-      <c r="G12" s="22">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
-        <v>44564</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="24">
-        <v>20</v>
-      </c>
-      <c r="F13" s="24">
-        <v>35</v>
-      </c>
-      <c r="G13" s="25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
-        <v>44595</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="24">
-        <v>20</v>
-      </c>
-      <c r="F14" s="24">
-        <v>35</v>
-      </c>
-      <c r="G14" s="25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="24">
-        <v>20</v>
-      </c>
-      <c r="F15" s="24">
-        <v>50</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F17" s="22">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
-        <v>44654</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="24">
-        <v>60</v>
-      </c>
-      <c r="F16" s="24">
-        <v>90</v>
-      </c>
-      <c r="G16" s="25">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
-        <v>44684</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="24">
-        <v>15</v>
-      </c>
-      <c r="F17" s="24">
-        <v>25</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31">
-        <v>1</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31">
-        <v>2</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31">
-        <v>3</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31">
-        <v>4</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31">
-        <v>5</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F746C9-CCF2-4216-A411-3A8B289DF334}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10B321-C2BE-485D-8266-7C4B5D3E63AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -291,63 +291,6 @@
     <t>При создании вселенной должно появляться окно, позволяющие задать параметры генерации вселенной. Должен быть чекбокс, указывающий, создаётся ли пустая вселенная. В противном случае пользователю необходимо заполнить следующие поля: минимальное и максимальное расстояние от центра координат, минимальный и максимальный диаметр, минимальная масса, зависимость массы от диаметра (и чекбокс, если они не должны зависеть), минимальная и максимальная скорость по координате, минимальная и максимальная яркость тел, гравитационная постоянная и чекбокс для её рандомизации.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Окно с настройкой дальности генерации и кнопкой старта. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">В отдельном потоке </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>происходит переход вселенной к следующему шагу и запись положения и скорости всех тел, а также изменение файла сводки истории.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Параллельно изменяется отображение текущей даты. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Если уже есть сгенерированная история, то генерация продолжается с последнего дня.</t>
-    </r>
-  </si>
-  <si>
     <t>Версия</t>
   </si>
   <si>
@@ -361,6 +304,9 @@
   </si>
   <si>
     <t>Ошибки в планировании - не продумал необходимость моделей состояния тела и вселенной, которые можно было бы сохранять. Из-за этого пришлось потратить на задачу больше времени чем планировалось.</t>
+  </si>
+  <si>
+    <t>Окно с настройкой дальности генерации и кнопкой старта. В отдельном потоке происходит переход вселенной к следующему шагу и запись положения и скорости всех тел, а также изменение файла сводки истории. Параллельно изменяется отображение текущей даты. Если уже есть сгенерированная история, то генерация продолжается с последнего дня.</t>
   </si>
 </sst>
 </file>
@@ -595,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -685,13 +631,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +965,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1019,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1246,7 +1186,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1316,17 +1256,17 @@
       <c r="C15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="30">
         <v>30</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="30">
         <v>40</v>
       </c>
-      <c r="G15" s="32">
-        <v>92</v>
+      <c r="G15" s="31">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1441,257 +1381,257 @@
   <cols>
     <col min="1" max="3" width="9.140625" style="27"/>
     <col min="4" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="127.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="127.7109375" style="34" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="39" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="36">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="36">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="E5" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="36">
+        <v>4</v>
+      </c>
+      <c r="C6" s="36">
         <v>1</v>
       </c>
-      <c r="C3" s="38">
+      <c r="D6" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="D7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="38">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="38">
-        <v>4</v>
-      </c>
-      <c r="C6" s="38">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="D8" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47">
-        <v>1</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
-        <v>6</v>
-      </c>
-      <c r="C8" s="44">
-        <v>2</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>86</v>
+      <c r="E8" s="44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1698,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1778,7 +1718,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -1798,7 +1738,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -1818,7 +1758,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -1838,7 +1778,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1858,7 +1798,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1878,7 +1818,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -1898,8 +1838,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
-        <v>85</v>
+      <c r="B11" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>64</v>
@@ -1918,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>3</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -1938,7 +1878,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -1958,7 +1898,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1978,7 +1918,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -1998,7 +1938,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -2018,7 +1958,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="22" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10B321-C2BE-485D-8266-7C4B5D3E63AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007857B-BA8C-4F51-BCF2-ADD01C84E17B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Окно рендера</t>
-  </si>
-  <si>
-    <t>Окно с настройками рендера – ширина, высота, центр, масштаб, минимальная и максимальная даты (предел максимальной даты берётся из файла сводки истории), задержка (если она возможна). Выбор формата из ComboBox. Кнопка запуска процесса рендеринга.</t>
   </si>
   <si>
     <t>Render</t>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Окно с настройкой дальности генерации и кнопкой старта. В отдельном потоке происходит переход вселенной к следующему шагу и запись положения и скорости всех тел, а также изменение файла сводки истории. Параллельно изменяется отображение текущей даты. Если уже есть сгенерированная история, то генерация продолжается с последнего дня.</t>
+  </si>
+  <si>
+    <t>Окно с настройками рендера – ширина, высота, центр, масштаб, минимальная и максимальная даты (предел максимальной даты берётся из файла сводки истории), задержка. Выбор формата из ComboBox. Кнопка запуска процесса рендеринга.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -681,6 +681,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +968,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1047,7 +1050,7 @@
     </row>
     <row r="5" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>10</v>
@@ -1067,7 +1070,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="8" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
@@ -1128,7 +1131,7 @@
     </row>
     <row r="9" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>20</v>
@@ -1191,13 +1194,13 @@
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="30">
         <v>35</v>
@@ -1211,7 +1214,7 @@
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>25</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="14" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>27</v>
@@ -1251,13 +1254,13 @@
     </row>
     <row r="15" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="30">
         <v>30</v>
@@ -1269,15 +1272,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
+      <c r="D16" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="E16" s="11">
         <v>20</v>
@@ -1292,10 +1295,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="8">
         <f>SUM(E18:E19)</f>
@@ -1307,36 +1310,38 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="E18" s="30">
         <v>15</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="30">
         <v>25</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E19" s="11">
         <v>30</v>
@@ -1390,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1407,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1421,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1435,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1449,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1463,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1477,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1682,10 +1687,10 @@
     <row r="3" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="19">
         <v>260</v>
@@ -1705,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="20">
         <v>30</v>
@@ -1719,13 +1724,13 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="E5" s="22">
         <v>10</v>
@@ -1739,13 +1744,13 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="22">
         <v>20</v>
@@ -1765,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="25">
         <v>95</v>
@@ -1779,13 +1784,13 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E8" s="22">
         <v>30</v>
@@ -1799,13 +1804,13 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E9" s="22">
         <v>30</v>
@@ -1819,13 +1824,13 @@
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="22">
         <v>15</v>
@@ -1839,13 +1844,13 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E11" s="22">
         <v>20</v>
@@ -1879,13 +1884,13 @@
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="22">
         <v>20</v>
@@ -1899,13 +1904,13 @@
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="22">
         <v>20</v>
@@ -1919,13 +1924,13 @@
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="E15" s="22">
         <v>20</v>
@@ -1939,13 +1944,13 @@
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="22">
         <v>60</v>
@@ -1959,13 +1964,13 @@
     </row>
     <row r="17" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="E17" s="22">
         <v>15</v>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007857B-BA8C-4F51-BCF2-ADD01C84E17B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E8047-47F9-4BDC-B690-C0DDA4C27D6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -681,9 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,7 +965,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1019,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1189,7 +1186,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1273,22 +1270,24 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="30">
         <v>20</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="30">
         <v>30</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
@@ -1379,7 +1378,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E8047-47F9-4BDC-B690-C0DDA4C27D6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7204B1-8E8B-4DA5-8EE2-66D8839D82DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +396,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -541,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -681,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1033,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,20 +1181,20 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+      <c r="B11" s="48">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="49">
         <f>SUM(E12:E16)</f>
         <v>135</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="49">
         <f t="shared" ref="F11:G11" si="3">SUM(F12:F16)</f>
         <v>205</v>
       </c>
@@ -1290,26 +1304,26 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+      <c r="B17" s="48">
         <v>4</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="49">
         <f>SUM(E18:E19)</f>
         <v>45</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="49">
         <f t="shared" ref="F17:G17" si="4">SUM(F18:F19)</f>
         <v>80</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1333,22 +1347,24 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="30">
         <v>30</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="30">
         <v>55</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7204B1-8E8B-4DA5-8EE2-66D8839D82DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD8E7A-794D-4DB8-83A0-E30C0014CA3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +404,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -584,12 +592,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -694,6 +696,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,13 +987,13 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="85.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
@@ -1033,7 +1041,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1054,7 +1062,7 @@
         <f t="shared" ref="F4:G4" si="1">SUM(F5:F6)</f>
         <v>25</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -1100,45 +1108,47 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="49">
         <f>SUM(E8:E10)</f>
         <v>70</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="49">
         <f t="shared" ref="F7:G7" si="2">SUM(F8:F10)</f>
         <v>115</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="28">
         <v>25</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="28">
         <v>40</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -1167,7 +1177,7 @@
       <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="10">
@@ -1181,20 +1191,20 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48">
+      <c r="B11" s="46">
         <v>3</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <f>SUM(E12:E16)</f>
         <v>135</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <f t="shared" ref="F11:G11" si="3">SUM(F12:F16)</f>
         <v>205</v>
       </c>
@@ -1204,19 +1214,19 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>35</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="28">
         <v>50</v>
       </c>
       <c r="G12" s="11">
@@ -1224,19 +1234,19 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>20</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="28">
         <v>35</v>
       </c>
       <c r="G13" s="11">
@@ -1244,19 +1254,19 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>30</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="28">
         <v>50</v>
       </c>
       <c r="G14" s="11">
@@ -1264,39 +1274,39 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>30</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <v>40</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="29">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>20</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <v>30</v>
       </c>
       <c r="G16" s="11">
@@ -1304,20 +1314,20 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48">
+      <c r="B17" s="46">
         <v>4</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <f>SUM(E18:E19)</f>
         <v>45</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <f t="shared" ref="F17:G17" si="4">SUM(F18:F19)</f>
         <v>80</v>
       </c>
@@ -1327,19 +1337,19 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>15</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <v>25</v>
       </c>
       <c r="G18" s="11">
@@ -1347,42 +1357,42 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <v>30</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <v>55</v>
       </c>
       <c r="G19" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-    </row>
-    <row r="22" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="2:7" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+    <row r="21" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+    </row>
+    <row r="22" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+    </row>
+    <row r="23" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+    </row>
+    <row r="25" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,259 +1409,259 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="27"/>
-    <col min="4" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="127.7109375" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="3" width="9.140625" style="25"/>
+    <col min="4" max="4" width="9.140625" style="26"/>
+    <col min="5" max="5" width="127.7109375" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="34">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>4</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45">
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>1</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+      <c r="B8" s="40">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>2</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,332 +1678,332 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="28.140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13" style="26" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="26" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="3.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="28.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13" style="24" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>260</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>480</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>581</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>30</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>55</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>20</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>20</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>35</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>95</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>190</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>30</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>60</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>30</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>60</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>15</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>40</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>20</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>30</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>135</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>235</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>353</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>35</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>20</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>35</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>20</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>50</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="20">
         <v>60</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>90</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>15</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="20">
         <v>25</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>8</v>
       </c>
     </row>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD8E7A-794D-4DB8-83A0-E30C0014CA3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="4665"/>
   </bookViews>
   <sheets>
-    <sheet name="Версия 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Версия 3" sheetId="4" r:id="rId1"/>
     <sheet name="Заметки" sheetId="3" r:id="rId2"/>
-    <sheet name="Версия 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Версия 2" sheetId="1" r:id="rId3"/>
+    <sheet name="Версия 1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>№</t>
   </si>
@@ -308,12 +308,69 @@
   <si>
     <t>Окно с настройками рендера – ширина, высота, центр, масштаб, минимальная и максимальная даты (предел максимальной даты берётся из файла сводки истории), задержка. Выбор формата из ComboBox. Кнопка запуска процесса рендеринга.</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Максимальная масса</t>
+  </si>
+  <si>
+    <t>В окне создания вселенной добавить поле для максимальной массы, учитывать её при генерации вселенной.</t>
+  </si>
+  <si>
+    <t>Настройка распределения масс</t>
+  </si>
+  <si>
+    <t>Реализовать формулу распределения (типа нормального), которое можно настраивать.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Распределённые вычисления</t>
+  </si>
+  <si>
+    <t>Сервис очередей</t>
+  </si>
+  <si>
+    <t>Контракты</t>
+  </si>
+  <si>
+    <t>Определить контракты для обмена данными между сервисами через Kafka.</t>
+  </si>
+  <si>
+    <t>Настроить микросервис Kafka для обмена данными между разными сервисами.</t>
+  </si>
+  <si>
+    <t>Приложение сервиса</t>
+  </si>
+  <si>
+    <t>Непосредственно приложение, которое будет производить расчёты.</t>
+  </si>
+  <si>
+    <t>Перестройка</t>
+  </si>
+  <si>
+    <t>Вынести методы обновления вселенной в микросервис.</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Настройка распределённых вычислений</t>
+  </si>
+  <si>
+    <t>Микросервис, который может выполнять вычисления при генерации истории.</t>
+  </si>
+  <si>
+    <t>В окне генерации истории поле, указывающее, сколько тел будет обрабатываться в одном микросервисе за раз.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +472,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -557,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -702,6 +772,51 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,11 +1098,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="85.28515625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="13" style="51" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="51" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="55">
+        <f>SUM(E4,E8)</f>
+        <v>115</v>
+      </c>
+      <c r="F3" s="55">
+        <f>SUM(F4,F8)</f>
+        <v>280</v>
+      </c>
+      <c r="G3" s="55">
+        <f>SUM(G4,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="57">
+        <f>SUM(E5:E7)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="57">
+        <f t="shared" ref="F4:G4" si="0">SUM(F5:F7)</f>
+        <v>130</v>
+      </c>
+      <c r="G4" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="59">
+        <v>10</v>
+      </c>
+      <c r="F5" s="59">
+        <v>20</v>
+      </c>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="59">
+        <v>30</v>
+      </c>
+      <c r="F6" s="59">
+        <v>90</v>
+      </c>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="59">
+        <v>10</v>
+      </c>
+      <c r="F7" s="59">
+        <v>20</v>
+      </c>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="57">
+        <f>SUM(E9:E12)</f>
+        <v>65</v>
+      </c>
+      <c r="F8" s="57">
+        <f>SUM(F9:F12)</f>
+        <v>150</v>
+      </c>
+      <c r="G8" s="57">
+        <f>SUM(G9:G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="59">
+        <v>15</v>
+      </c>
+      <c r="F9" s="59">
+        <v>45</v>
+      </c>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="59">
+        <v>30</v>
+      </c>
+      <c r="F10" s="59">
+        <v>60</v>
+      </c>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="59">
+        <v>15</v>
+      </c>
+      <c r="F11" s="59">
+        <v>30</v>
+      </c>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="59">
+        <v>5</v>
+      </c>
+      <c r="F12" s="59">
+        <v>15</v>
+      </c>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="61"/>
+    </row>
+    <row r="14" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="61"/>
+    </row>
+    <row r="15" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
+    </row>
+    <row r="16" spans="2:7" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="25"/>
+    <col min="4" max="4" width="9.140625" style="26"/>
+    <col min="5" max="5" width="127.7109375" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43">
+        <v>5</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,277 +2034,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFB2F0F-2939-40C5-96CD-99E71C785277}">
-  <dimension ref="B2:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="25"/>
-    <col min="4" max="4" width="9.140625" style="26"/>
-    <col min="5" max="5" width="127.7109375" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="34">
-        <v>1</v>
-      </c>
-      <c r="C3" s="34">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
-        <v>2</v>
-      </c>
-      <c r="C4" s="34">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
-        <v>3</v>
-      </c>
-      <c r="C5" s="34">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
-        <v>4</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43">
-        <v>5</v>
-      </c>
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
-        <v>6</v>
-      </c>
-      <c r="C8" s="40">
-        <v>2</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA6A05-352F-482B-940E-074C9DA947DD}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
